--- a/trunk/doc/Perhitungan Database.xlsx
+++ b/trunk/doc/Perhitungan Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>alumni</t>
   </si>
@@ -156,35 +156,128 @@
     <t>8*M+2</t>
   </si>
   <si>
-    <t>1 field</t>
-  </si>
-  <si>
-    <t>2 field</t>
-  </si>
-  <si>
-    <t>5 field</t>
-  </si>
-  <si>
-    <t>6*255</t>
-  </si>
-  <si>
-    <t>3 field</t>
-  </si>
-  <si>
-    <t>2*255</t>
-  </si>
-  <si>
-    <t>1*255</t>
-  </si>
-  <si>
-    <t>1*150</t>
+    <t>TOTAL 1 FIELD</t>
+  </si>
+  <si>
+    <t>FAKTOR PENGALI</t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>Banyak kategori event</t>
+  </si>
+  <si>
+    <t>Asumsi</t>
+  </si>
+  <si>
+    <t>semua user isi edukasi full</t>
+  </si>
+  <si>
+    <t>Banyak User Terdaftar</t>
+  </si>
+  <si>
+    <t>Banyak Alumni</t>
+  </si>
+  <si>
+    <t>Banyak event  yang gak di hapus</t>
+  </si>
+  <si>
+    <t>Banyak teman 1 user</t>
+  </si>
+  <si>
+    <t>setiap user punya 10 friend request yg belum diapprove</t>
+  </si>
+  <si>
+    <t>Banyak friend request yg belom approve</t>
+  </si>
+  <si>
+    <t>setiap user ngisi 10 interest</t>
+  </si>
+  <si>
+    <t>banyak interest per user</t>
+  </si>
+  <si>
+    <t>Banyak list interest</t>
+  </si>
+  <si>
+    <t>Banyak jurusan (majorminor)</t>
+  </si>
+  <si>
+    <t>ada 20 news</t>
+  </si>
+  <si>
+    <t>Banyak news yg gak diapus</t>
+  </si>
+  <si>
+    <t>setiap orang punya 5 notif per hari</t>
+  </si>
+  <si>
+    <t>LAMA SISTEM BERJALAN</t>
+  </si>
+  <si>
+    <t>HARI</t>
+  </si>
+  <si>
+    <t>Banyak notif per orang/hari</t>
+  </si>
+  <si>
+    <t>setiap orang RSVP 5 event/hari</t>
+  </si>
+  <si>
+    <t>Banyak event yang di RSVP oleh 1 orang</t>
+  </si>
+  <si>
+    <t>semua user informasinya full diisi</t>
+  </si>
+  <si>
+    <t>setiap orang ngisi 5 work experience</t>
+  </si>
+  <si>
+    <t>Banyak work experience/orang</t>
+  </si>
+  <si>
+    <t>JUMLAH (bytes)</t>
+  </si>
+  <si>
+    <t>JUMLAH (Gigabytes)</t>
+  </si>
+  <si>
+    <t>Banyak message/user/hari</t>
+  </si>
+  <si>
+    <t>setiap user dapet 5 message/hari</t>
+  </si>
+  <si>
+    <t>setiap user berkenalan dengan (jumlahusertotal-1) lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data alumni full </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>banyak kategori event = 100</t>
+  </si>
+  <si>
+    <t>banyak event yang belum kehapus = 100</t>
+  </si>
+  <si>
+    <t>banyak list interest = 100</t>
+  </si>
+  <si>
+    <t>banyak jurusan = 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +286,24 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +318,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,11 +343,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +371,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:R31"/>
+  <dimension ref="A3:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="R3" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,308 +712,1085 @@
     <col min="14" max="14" width="12" style="2" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="2"/>
     <col min="16" max="16" width="13.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="17" width="23" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="31.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18" style="2" customWidth="1"/>
+    <col min="21" max="21" width="54.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="37" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:23">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
+      <c r="S3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5">
+        <f>$B4*$A$31+$C4*$B$31+$D4*$C$31+$E4*$D$31+$F4*$E$31+$G4*$F$31+$K4*$J$31+$L4*$K$31+$M4*$L$31+$N4*$M$31+$O4*$N$31+$P4*$O$31+$Q4*$P$31+$R4*$Q$31</f>
+        <v>1213</v>
+      </c>
+      <c r="T4" s="2">
+        <f xml:space="preserve"> S4*W4</f>
+        <v>3639000</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5">
+        <f t="shared" ref="S5:S26" si="0">$B5*$A$31+$C5*$B$31+$D5*$C$31+$E5*$D$31+$F5*$E$31+$G5*$F$31+$K5*$J$31+$L5*$K$31+$M5*$L$31+$N5*$M$31+$O5*$N$31+$P5*$O$31+$Q5*$P$31+$R5*$Q$31</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <f xml:space="preserve"> S5*3000</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="3" t="s">
+      <c r="W5" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="T7" s="2">
+        <f>S7*W6</f>
+        <v>120400</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="3" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5">
+        <f t="shared" si="0"/>
+        <v>1221</v>
+      </c>
+      <c r="T8" s="2">
+        <f>S8*W5</f>
+        <v>3052500</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="5">
+        <f>W5-1</f>
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
+        <f>6*255</f>
+        <v>1530</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5">
+        <f t="shared" si="0"/>
+        <v>12252</v>
+      </c>
+      <c r="T9" s="2">
+        <f>S9*W7</f>
+        <v>1225200</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" s="5">
+        <f>10*W5</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T10" s="2">
+        <f>S10*W8</f>
+        <v>29988</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5">
+        <f t="shared" si="0"/>
+        <v>1212</v>
+      </c>
+      <c r="T11" s="2">
+        <f>S11*W9</f>
+        <v>30300000</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="T12" s="2">
+        <f>S12</f>
+        <v>1204</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T13" s="2">
+        <f>S13*W7</f>
+        <v>1200</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="T14" s="2">
+        <f>S14*W10</f>
+        <v>120400</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="3" t="s">
+      <c r="T15" s="2">
+        <f>S15*W5*W11</f>
+        <v>300000</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="T16" s="2">
+        <f>S16</f>
+        <v>1204</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="T17" s="2">
+        <f>S17*W12</f>
+        <v>120400</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="0"/>
+        <v>2818</v>
+      </c>
+      <c r="T18" s="2">
+        <f>S18*W5*W13*W20</f>
+        <v>105675000</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="0"/>
+        <v>2810</v>
+      </c>
+      <c r="T19" s="2">
+        <f>S19*W14</f>
+        <v>56200</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="21">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
+        <f>2*255</f>
+        <v>510</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5">
+        <f t="shared" si="0"/>
+        <v>4093</v>
+      </c>
+      <c r="T20" s="2">
+        <f>S20*W5*W15*W20</f>
+        <v>153487500</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T21" s="2">
+        <f>S21*W5*W16*W20</f>
+        <v>487500</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="T22" s="2">
+        <f>S22</f>
+        <v>1204</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5">
+        <f>1*150</f>
+        <v>150</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="T23" s="2">
+        <f>S23</f>
+        <v>1204</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5">
+        <f>4*255+1*150+1*50+2*20</f>
+        <v>1260</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5">
+        <f t="shared" si="0"/>
+        <v>10097</v>
+      </c>
+      <c r="T24" s="2">
+        <f>S24*W5</f>
+        <v>25242500</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="5">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T25" s="2">
+        <f>S25*W5</f>
+        <v>47500</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5">
+        <f>4*255+3*20</f>
+        <v>1080</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5">
+        <f t="shared" si="0"/>
+        <v>8650</v>
+      </c>
+      <c r="T26" s="2">
+        <f>S26*W5*W17</f>
+        <v>108125000</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="S28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="8">
+        <f>SUM(T4:T26)</f>
+        <v>432035104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="S29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T29" s="13">
+        <f xml:space="preserve"> T28 /(1024*1024)</f>
+        <v>412.02078247070312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -900,7 +1843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -946,10 +1889,18 @@
       <c r="O31" s="2">
         <v>8</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="P32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/trunk/doc/Perhitungan Database.xlsx
+++ b/trunk/doc/Perhitungan Database.xlsx
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R3" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="S5" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,7 +831,7 @@
       </c>
       <c r="T4" s="2">
         <f xml:space="preserve"> S4*W4</f>
-        <v>3639000</v>
+        <v>24260000</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>79</v>
@@ -840,7 +840,7 @@
         <v>54</v>
       </c>
       <c r="W4" s="8">
-        <v>3000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,7 +879,7 @@
         <v>53</v>
       </c>
       <c r="W5" s="8">
-        <v>2500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -914,7 +914,7 @@
         <v>50</v>
       </c>
       <c r="W6" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -949,7 +949,7 @@
       </c>
       <c r="T7" s="2">
         <f>S7*W6</f>
-        <v>120400</v>
+        <v>12040</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>81</v>
@@ -958,7 +958,7 @@
         <v>55</v>
       </c>
       <c r="W7" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -995,7 +995,7 @@
       </c>
       <c r="T8" s="2">
         <f>S8*W5</f>
-        <v>3052500</v>
+        <v>12210000</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>52</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="W8" s="5">
         <f>W5-1</f>
-        <v>2499</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="T9" s="2">
         <f>S9*W7</f>
-        <v>1225200</v>
+        <v>735120</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>82</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="W9" s="5">
         <f>10*W5</f>
-        <v>25000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="T10" s="2">
         <f>S10*W8</f>
-        <v>29988</v>
+        <v>119988</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>78</v>
@@ -1093,7 +1093,7 @@
         <v>61</v>
       </c>
       <c r="W10" s="5">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="T11" s="2">
         <f>S11*W9</f>
-        <v>30300000</v>
+        <v>121200000</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>57</v>
@@ -1137,7 +1137,7 @@
         <v>60</v>
       </c>
       <c r="W11" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1181,7 +1181,7 @@
         <v>62</v>
       </c>
       <c r="W12" s="5">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="T13" s="2">
         <f>S13*W7</f>
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>82</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="T14" s="2">
         <f>S14*W10</f>
-        <v>120400</v>
+        <v>18060</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>83</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="T15" s="2">
         <f>S15*W5*W11</f>
-        <v>300000</v>
+        <v>1800000</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>59</v>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="T17" s="2">
         <f>S17*W12</f>
-        <v>120400</v>
+        <v>48160</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>84</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="T18" s="2">
         <f>S18*W5*W13*W20</f>
-        <v>105675000</v>
+        <v>14090000000</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>77</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="T20" s="2">
         <f>S20*W5*W15*W20</f>
-        <v>153487500</v>
+        <v>20465000000</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>65</v>
@@ -1531,7 +1531,7 @@
         <v>66</v>
       </c>
       <c r="W20" s="5">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="T21" s="2">
         <f>S21*W5*W16*W20</f>
-        <v>487500</v>
+        <v>65000000</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>69</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="T24" s="2">
         <f>S24*W5</f>
-        <v>25242500</v>
+        <v>100970000</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>71</v>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="T25" s="2">
         <f>S25*W5</f>
-        <v>47500</v>
+        <v>190000</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>80</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="T26" s="2">
         <f>S26*W5*W17</f>
-        <v>108125000</v>
+        <v>432500000</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>72</v>
@@ -1777,8 +1777,8 @@
         <v>74</v>
       </c>
       <c r="T28" s="8">
-        <f>SUM(T4:T26)</f>
-        <v>432035104</v>
+        <f>SUM(T4:T26)-T20</f>
+        <v>14849125104</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="T29" s="13">
         <f xml:space="preserve"> T28 /(1024*1024)</f>
-        <v>412.02078247070312</v>
+        <v>14161.229232788086</v>
       </c>
     </row>
     <row r="30" spans="1:23">

--- a/trunk/doc/Perhitungan Database.xlsx
+++ b/trunk/doc/Perhitungan Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>alumni</t>
   </si>
@@ -213,18 +213,12 @@
     <t>Banyak news yg gak diapus</t>
   </si>
   <si>
-    <t>setiap orang punya 5 notif per hari</t>
-  </si>
-  <si>
     <t>LAMA SISTEM BERJALAN</t>
   </si>
   <si>
     <t>HARI</t>
   </si>
   <si>
-    <t>Banyak notif per orang/hari</t>
-  </si>
-  <si>
     <t>setiap orang RSVP 5 event/hari</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>JUMLAH (bytes)</t>
   </si>
   <si>
-    <t>JUMLAH (Gigabytes)</t>
-  </si>
-  <si>
     <t>Banyak message/user/hari</t>
   </si>
   <si>
@@ -271,13 +262,37 @@
   </si>
   <si>
     <t>banyak jurusan = 100</t>
+  </si>
+  <si>
+    <t>JUMLAH DB (Gigabytes)</t>
+  </si>
+  <si>
+    <t>JUMLAH Storage Profpict (Gigabytes)</t>
+  </si>
+  <si>
+    <t>Jumlah Storage Foto Event (Gigabytes)</t>
+  </si>
+  <si>
+    <t>TOTAL KEBUTUHAN STORAGE</t>
+  </si>
+  <si>
+    <t>Gigabytes</t>
+  </si>
+  <si>
+    <t>ada 1000 notif yang belum dibaca oleh semua user</t>
+  </si>
+  <si>
+    <t>Banyak notif yang belum dibaca semua user</t>
+  </si>
+  <si>
+    <t>asumsi rataan 100 karakter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +313,22 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,7 +431,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:W32"/>
+  <dimension ref="A3:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S5" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="R11" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,10 +748,10 @@
     <col min="16" max="16" width="13.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="23" style="2" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="31.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="40" style="2" customWidth="1"/>
     <col min="20" max="20" width="18" style="2" customWidth="1"/>
     <col min="21" max="21" width="54.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="37" style="2" customWidth="1"/>
+    <col min="22" max="22" width="41" style="2" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -834,7 +868,7 @@
         <v>24260000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>54</v>
@@ -873,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>53</v>
@@ -908,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>50</v>
@@ -952,7 +986,7 @@
         <v>12040</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>55</v>
@@ -1045,7 +1079,7 @@
         <v>735120</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>58</v>
@@ -1087,7 +1121,7 @@
         <v>119988</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>61</v>
@@ -1175,7 +1209,7 @@
         <v>1204</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>62</v>
@@ -1216,10 +1250,10 @@
         <v>720</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W13" s="5">
         <v>5</v>
@@ -1260,7 +1294,7 @@
         <v>18060</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>64</v>
@@ -1304,10 +1338,10 @@
         <v>59</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="W15" s="5">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1345,10 +1379,10 @@
         <v>1204</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W16" s="5">
         <v>5</v>
@@ -1389,10 +1423,10 @@
         <v>48160</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W17" s="5">
         <v>5</v>
@@ -1430,14 +1464,14 @@
       </c>
       <c r="S18" s="5">
         <f t="shared" si="0"/>
-        <v>2818</v>
+        <v>2018</v>
       </c>
       <c r="T18" s="2">
         <f>S18*W5*W13*W20</f>
-        <v>14090000000</v>
+        <v>30270000000</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1472,18 +1506,18 @@
       </c>
       <c r="S19" s="5">
         <f t="shared" si="0"/>
-        <v>2810</v>
+        <v>2010</v>
       </c>
       <c r="T19" s="2">
         <f>S19*W14</f>
-        <v>56200</v>
+        <v>40200</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="21">
@@ -1521,17 +1555,17 @@
         <v>4093</v>
       </c>
       <c r="T20" s="2">
-        <f>S20*W5*W15*W20</f>
-        <v>20465000000</v>
+        <f>S20*W15</f>
+        <v>4093000</v>
       </c>
       <c r="U20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="V20" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="W20" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1565,10 +1599,10 @@
       </c>
       <c r="T21" s="2">
         <f>S21*W5*W16*W20</f>
-        <v>65000000</v>
+        <v>195000000</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1606,7 +1640,7 @@
         <v>1204</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -1644,7 +1678,7 @@
         <v>1204</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -1690,7 +1724,7 @@
         <v>100970000</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -1727,7 +1761,7 @@
         <v>190000</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -1769,25 +1803,25 @@
         <v>432500000</v>
       </c>
       <c r="U26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="S28" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="S28" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="T28" s="8">
-        <f>SUM(T4:T26)-T20</f>
-        <v>14849125104</v>
+        <f>SUM(T4:T26)</f>
+        <v>31163202104</v>
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="S29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T29" s="13">
-        <f xml:space="preserve"> T28 /(1024*1024)</f>
-        <v>14161.229232788086</v>
+      <c r="S29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="8">
+        <f xml:space="preserve"> T28 /(1024*1024*1024)</f>
+        <v>29.022993616759777</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -1842,6 +1876,13 @@
       <c r="Q30" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="S30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" s="5">
+        <f>(0.5/1024)*W5</f>
+        <v>4.8828125</v>
+      </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="2">
@@ -1893,15 +1934,37 @@
         <v>8</v>
       </c>
       <c r="Q31" s="2">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>802</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T31" s="5">
+        <f>(0.5/1024)*W7</f>
+        <v>2.9296875E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="21">
       <c r="P32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32" s="5">
+        <f>SUM(T29:T31)</f>
+        <v>33.935102991759777</v>
+      </c>
+    </row>
+    <row r="33" spans="17:20">
+      <c r="Q33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/Perhitungan Database.xlsx
+++ b/trunk/doc/Perhitungan Database.xlsx
@@ -285,7 +285,7 @@
     <t>Banyak notif yang belum dibaca semua user</t>
   </si>
   <si>
-    <t>asumsi rataan 100 karakter</t>
+    <t>asumsi rataan 200 karakter</t>
   </si>
 </sst>
 </file>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R11" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="R9" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,11 +1464,11 @@
       </c>
       <c r="S18" s="5">
         <f t="shared" si="0"/>
-        <v>2018</v>
+        <v>2818</v>
       </c>
       <c r="T18" s="2">
         <f>S18*W5*W13*W20</f>
-        <v>30270000000</v>
+        <v>42270000000</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>74</v>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="S19" s="5">
         <f t="shared" si="0"/>
-        <v>2010</v>
+        <v>2810</v>
       </c>
       <c r="T19" s="2">
         <f>S19*W14</f>
-        <v>40200</v>
+        <v>56200</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>63</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="T28" s="8">
         <f>SUM(T4:T26)</f>
-        <v>31163202104</v>
+        <v>43163218104</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="T29" s="8">
         <f xml:space="preserve"> T28 /(1024*1024*1024)</f>
-        <v>29.022993616759777</v>
+        <v>40.198879413306713</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -1880,8 +1880,8 @@
         <v>83</v>
       </c>
       <c r="T30" s="5">
-        <f>(0.5/1024)*W5</f>
-        <v>4.8828125</v>
+        <f>(1/1024)*W5</f>
+        <v>9.765625</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="Q31" s="2">
-        <v>802</v>
+        <v>1602</v>
       </c>
       <c r="S31" s="9" t="s">
         <v>84</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T32" s="5">
         <f>SUM(T29:T31)</f>
-        <v>33.935102991759777</v>
+        <v>49.993801288306713</v>
       </c>
     </row>
     <row r="33" spans="17:20">
